--- a/data/trans_dic/P2B_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P2B_R-Dificultad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.4807082525441147</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.3810165655529732</v>
+        <v>0.3810165655529733</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.19645412568085</v>
+        <v>0.1973008136514409</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5441611946846293</v>
+        <v>0.548803668087978</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4085878154728616</v>
+        <v>0.4030825326791777</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3158705817047386</v>
+        <v>0.3145460283544232</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2986522185405248</v>
+        <v>0.3008137173453977</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.5517335694201383</v>
+        <v>0.550887820796737</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4850761344981103</v>
+        <v>0.4830538926581237</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3468436821979926</v>
+        <v>0.355701011052662</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2718953345164186</v>
+        <v>0.2694620986906602</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.5586849078223847</v>
+        <v>0.5586646829100643</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.4586822729304207</v>
+        <v>0.4594908893048008</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3483771520448392</v>
+        <v>0.3529837114695374</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2731539528335499</v>
+        <v>0.2726094867241423</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6162066740431147</v>
+        <v>0.6172930098116708</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4749284245119655</v>
+        <v>0.4733562505006861</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4329358720408378</v>
+        <v>0.4272027967092316</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3656474967918412</v>
+        <v>0.3642570526358395</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.61453895221404</v>
+        <v>0.614184836577637</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5447620179997107</v>
+        <v>0.5443968898124176</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4283394184028313</v>
+        <v>0.4308391993610128</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3217263929416781</v>
+        <v>0.3206412803469147</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.6068688522014929</v>
+        <v>0.6089738648674794</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.5031383286654298</v>
+        <v>0.5049446457957094</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4157196723171805</v>
+        <v>0.4146972950756269</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.4128183181723147</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.3120075342122136</v>
+        <v>0.3120075342122135</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1879462202615518</v>
+        <v>0.1863172793132829</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4825317120872497</v>
+        <v>0.4792163017923987</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3491725859753338</v>
+        <v>0.3518169378135463</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2553124186425917</v>
+        <v>0.2582353470164313</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1885048462030836</v>
+        <v>0.1889386971514754</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.505104842153701</v>
+        <v>0.5042895156142593</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3968426818087126</v>
+        <v>0.3988438475875807</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3012843437798422</v>
+        <v>0.3006394947954864</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.19602575873956</v>
+        <v>0.1952749755734187</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.5008956316386185</v>
+        <v>0.5007642125109113</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3893956659297916</v>
+        <v>0.3869230832003878</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2909406378242486</v>
+        <v>0.2887819302120742</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2443372298001729</v>
+        <v>0.2423454805681162</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5542035157634583</v>
+        <v>0.5541462021269068</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4260176869021221</v>
+        <v>0.4266119959341942</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3283855711470661</v>
+        <v>0.3286719255328426</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2442869840447005</v>
+        <v>0.2434768011483695</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5693097651478327</v>
+        <v>0.5702665778420449</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.470906514274806</v>
+        <v>0.468583051769682</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3559138963461572</v>
+        <v>0.3564724266168193</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2349844761519709</v>
+        <v>0.236916923304089</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.5494392925747704</v>
+        <v>0.5481141367178399</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4395378796465562</v>
+        <v>0.4387776469406511</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3358602052369114</v>
+        <v>0.333656174999405</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.428285733944327</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.2182450403173475</v>
+        <v>0.2182450403173474</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.2563130112796842</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1844168711418835</v>
+        <v>0.1829058796515174</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4155106433943557</v>
+        <v>0.4110260423843622</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3863857124357942</v>
+        <v>0.3871848544338786</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1893136566375217</v>
+        <v>0.1841314474701721</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2257356682079878</v>
+        <v>0.225564624534634</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4761908701051584</v>
+        <v>0.476216243662305</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3968175307076206</v>
+        <v>0.3958657896175159</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2235625619556632</v>
+        <v>0.2250049433903198</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2154188679488522</v>
+        <v>0.2113134329804418</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.4583339001252366</v>
+        <v>0.4591162410162206</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.4019353251444484</v>
+        <v>0.4025582425555704</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2130587116532833</v>
+        <v>0.21376000873669</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2405772747280538</v>
+        <v>0.2395721237243109</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4915029428156206</v>
+        <v>0.4871689377706079</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4710413903549185</v>
+        <v>0.4705899602855143</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.25476542894254</v>
+        <v>0.2530958568815</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2895229677603519</v>
+        <v>0.2862064204622424</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5505896598211225</v>
+        <v>0.5547924188172363</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4771336848866716</v>
+        <v>0.4748027102410134</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2760846494530669</v>
+        <v>0.2764141853758164</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2563575610125231</v>
+        <v>0.2521476788090273</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.5104573774120124</v>
+        <v>0.5134321461554394</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.4603979294486676</v>
+        <v>0.4593555965060138</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2559419010558871</v>
+        <v>0.2570101200951628</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1869869197694745</v>
+        <v>0.1853274099129228</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4534454152351926</v>
+        <v>0.4509020884568474</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3474818735118096</v>
+        <v>0.3383091023791425</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1160434255583356</v>
+        <v>0.1164068388258874</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1757317201728347</v>
+        <v>0.1760909831941331</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.4415928894924578</v>
+        <v>0.4411795474486978</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.4312664665845689</v>
+        <v>0.4294147259781557</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1292699712976416</v>
+        <v>0.1282174493609523</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1963441809660623</v>
+        <v>0.194378932570703</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.4648314198028834</v>
+        <v>0.463746468822859</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.4073908614231997</v>
+        <v>0.4053010395445564</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1265118652875373</v>
+        <v>0.1278250698602259</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2852863798739405</v>
+        <v>0.2832871470891409</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5586838875748652</v>
+        <v>0.5593177315909516</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4532738192624121</v>
+        <v>0.4498638419682252</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1699957893070783</v>
+        <v>0.1707176895550846</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2777962147784365</v>
+        <v>0.2755232491389647</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.5515456991248036</v>
+        <v>0.5517115340767448</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.534470913686987</v>
+        <v>0.5337347426073402</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1767028837040321</v>
+        <v>0.1768392432530972</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2636905856708871</v>
+        <v>0.262837424673121</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.5408396465096924</v>
+        <v>0.5381382862377539</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4809960651600581</v>
+        <v>0.4808984656534425</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.16609872042022</v>
+        <v>0.1632771851177462</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2015151696132871</v>
+        <v>0.2016533375531163</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4998443095932335</v>
+        <v>0.4970027095459624</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3959621874666508</v>
+        <v>0.397301270705074</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2226909359598409</v>
+        <v>0.2213555776312356</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2448153944720674</v>
+        <v>0.2448713694615782</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.5217126943054974</v>
+        <v>0.5206415761351076</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.4516593362728776</v>
+        <v>0.4496056260919667</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2631221075348205</v>
+        <v>0.2633135725959355</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.22943478270838</v>
+        <v>0.2297659365929381</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.517911145114449</v>
+        <v>0.516816039447762</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.4320682029238367</v>
+        <v>0.4329483007052811</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2488717860387117</v>
+        <v>0.2495259377154079</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2361725488427517</v>
+        <v>0.23475610438519</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5398192452438857</v>
+        <v>0.538495720086841</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4397551630019346</v>
+        <v>0.4379207606229367</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2590723039349782</v>
+        <v>0.2600849928664431</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2790692898659508</v>
+        <v>0.2790652681564689</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.5587819680814937</v>
+        <v>0.561839355690626</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4894702352297589</v>
+        <v>0.4886627157695837</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.291398623779146</v>
+        <v>0.2913204258784667</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2536285142486045</v>
+        <v>0.2545696536211826</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.5459279630482392</v>
+        <v>0.5439309861640167</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.4587104165468429</v>
+        <v>0.4600054045502644</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2724055104176124</v>
+        <v>0.2729236042021376</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>89848</v>
+        <v>90236</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>461490</v>
+        <v>465427</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>359178</v>
+        <v>354338</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>107460</v>
+        <v>107009</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>245393</v>
+        <v>247169</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>556360</v>
+        <v>555507</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>530199</v>
+        <v>527989</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>175464</v>
+        <v>179945</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>347759</v>
+        <v>344647</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1037177</v>
+        <v>1037139</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>904565</v>
+        <v>906159</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>294758</v>
+        <v>298656</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>124927</v>
+        <v>124678</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>522589</v>
+        <v>523511</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>417496</v>
+        <v>416114</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>147286</v>
+        <v>145335</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>300441</v>
+        <v>299299</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>619692</v>
+        <v>619335</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>595437</v>
+        <v>595038</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>216692</v>
+        <v>217956</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>411494</v>
+        <v>410106</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>1126628</v>
+        <v>1130536</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>992236</v>
+        <v>995798</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>351736</v>
+        <v>350871</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>157330</v>
+        <v>155966</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>389221</v>
+        <v>386547</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>231059</v>
+        <v>232809</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>175254</v>
+        <v>177260</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>171353</v>
+        <v>171748</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>491356</v>
+        <v>490563</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>333180</v>
+        <v>334861</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>271389</v>
+        <v>270808</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>342283</v>
+        <v>340972</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>891295</v>
+        <v>891061</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>584604</v>
+        <v>580891</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>461781</v>
+        <v>458355</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>204535</v>
+        <v>202868</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>447033</v>
+        <v>446987</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>281910</v>
+        <v>282303</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>225413</v>
+        <v>225610</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>222060</v>
+        <v>221324</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>553813</v>
+        <v>554744</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>395363</v>
+        <v>393412</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>320598</v>
+        <v>321101</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>410309</v>
+        <v>413684</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>977673</v>
+        <v>975315</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>659883</v>
+        <v>658741</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>533078</v>
+        <v>529579</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>153117</v>
+        <v>151863</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>288869</v>
+        <v>285751</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>225601</v>
+        <v>226067</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>130975</v>
+        <v>127390</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>180658</v>
+        <v>180521</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>364954</v>
+        <v>364974</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>246684</v>
+        <v>246093</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>180914</v>
+        <v>182081</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>351259</v>
+        <v>344564</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>669909</v>
+        <v>671052</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>484545</v>
+        <v>485296</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>319817</v>
+        <v>320869</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>199746</v>
+        <v>198911</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>341700</v>
+        <v>338687</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>275029</v>
+        <v>274765</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>176258</v>
+        <v>175103</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>231707</v>
+        <v>229053</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>421974</v>
+        <v>425195</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>296613</v>
+        <v>295164</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>223416</v>
+        <v>223683</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>418013</v>
+        <v>411148</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>746093</v>
+        <v>750441</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>555024</v>
+        <v>553767</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>384187</v>
+        <v>385791</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>57517</v>
+        <v>57007</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>173045</v>
+        <v>172075</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>121732</v>
+        <v>118518</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>72278</v>
+        <v>72505</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>49848</v>
+        <v>49949</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>168969</v>
+        <v>168811</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>165642</v>
+        <v>164930</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>82456</v>
+        <v>81785</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>116090</v>
+        <v>114928</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>355251</v>
+        <v>354422</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>299191</v>
+        <v>297656</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>159496</v>
+        <v>161151</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>87754</v>
+        <v>87139</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>213207</v>
+        <v>213449</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>158794</v>
+        <v>157599</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>105883</v>
+        <v>106333</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>78799</v>
+        <v>78154</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>211041</v>
+        <v>211104</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>205281</v>
+        <v>204998</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>112712</v>
+        <v>112799</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>155909</v>
+        <v>155405</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>413341</v>
+        <v>411276</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>353247</v>
+        <v>353176</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>209404</v>
+        <v>205846</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>490151</v>
+        <v>490487</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1365342</v>
+        <v>1357580</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>980008</v>
+        <v>983322</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>521393</v>
+        <v>518266</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>689069</v>
+        <v>689226</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1633067</v>
+        <v>1629714</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1327129</v>
+        <v>1321094</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>750886</v>
+        <v>751432</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1203839</v>
+        <v>1205576</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>3035859</v>
+        <v>3029440</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>2338934</v>
+        <v>2343698</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1292909</v>
+        <v>1296308</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>574449</v>
+        <v>571004</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1474535</v>
+        <v>1470920</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1088396</v>
+        <v>1083856</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>606573</v>
+        <v>608945</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>785481</v>
+        <v>785470</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1749101</v>
+        <v>1758671</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1438230</v>
+        <v>1435857</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>831580</v>
+        <v>831357</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1330782</v>
+        <v>1335721</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>3200087</v>
+        <v>3188381</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>2483157</v>
+        <v>2490167</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1415169</v>
+        <v>1417861</v>
       </c>
     </row>
     <row r="24">
